--- a/data/steel/factories/DRI_factory.xlsx
+++ b/data/steel/factories/DRI_factory.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5F338-C420-7C43-BC8F-8E56D9ACFD29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -148,18 +155,12 @@
     <t>simple_power</t>
   </si>
   <si>
-    <t>fossil fuel</t>
-  </si>
-  <si>
     <t>biofuel</t>
   </si>
   <si>
     <t>simple_DRI</t>
   </si>
   <si>
-    <t>iron sponge</t>
-  </si>
-  <si>
     <t>simple_EAF</t>
   </si>
   <si>
@@ -169,16 +170,22 @@
     <t>gas</t>
   </si>
   <si>
-    <t>simple_EOF</t>
-  </si>
-  <si>
     <t>syngas</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>simple_casting</t>
+  </si>
+  <si>
+    <t>hot rolled coil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -256,7 +263,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,21 +574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -598,7 +605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -612,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -626,7 +633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -640,7 +647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -654,7 +661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -668,7 +675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -682,9 +689,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -693,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
   </sheetData>
@@ -705,30 +712,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,12 +773,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -792,12 +799,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -812,13 +819,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -844,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -870,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -896,7 +903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -922,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -948,7 +955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -974,9 +981,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1000,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1026,165 +1033,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,21 +1069,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1228,34 +1105,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/factories/DRI_factory.xlsx
+++ b/data/steel/factories/DRI_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5F338-C420-7C43-BC8F-8E56D9ACFD29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6241D8FB-F09B-FD42-B39C-EA476E0B3570}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="600" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Inflow</t>
   </si>
@@ -143,15 +143,9 @@
     <t>simple_oxygen</t>
   </si>
   <si>
-    <t>simple_fuel</t>
-  </si>
-  <si>
     <t>simple_pellets</t>
   </si>
   <si>
-    <t>outflows</t>
-  </si>
-  <si>
     <t>simple_power</t>
   </si>
   <si>
@@ -164,22 +158,19 @@
     <t>simple_EAF</t>
   </si>
   <si>
-    <t>simple_gas</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>syngas</t>
   </si>
   <si>
-    <t>DRI</t>
-  </si>
-  <si>
     <t>simple_casting</t>
   </si>
   <si>
     <t>hot rolled coil</t>
+  </si>
+  <si>
+    <t>simple_syngas</t>
+  </si>
+  <si>
+    <t>reduced iron</t>
   </si>
 </sst>
 </file>
@@ -575,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -621,90 +612,62 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -713,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,134 +741,134 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -923,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -931,7 +894,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -949,15 +912,15 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -975,93 +938,15 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,7 +958,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -1110,18 +995,18 @@
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -1132,10 +1017,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/steel/factories/DRI_factory.xlsx
+++ b/data/steel/factories/DRI_factory.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6241D8FB-F09B-FD42-B39C-EA476E0B3570}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="600" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="600" windowWidth="20355" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>Inflow</t>
   </si>
@@ -123,9 +122,6 @@
   </si>
   <si>
     <t>o flowtype</t>
-  </si>
-  <si>
-    <t>fuel</t>
   </si>
   <si>
     <t>process_ID</t>
@@ -176,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,7 +250,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,21 +561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -596,12 +592,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -610,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -621,10 +617,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -635,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -649,24 +645,24 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
     </row>
   </sheetData>
@@ -675,30 +671,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -756,13 +752,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -782,44 +778,44 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -834,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -860,13 +856,13 @@
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -886,13 +882,13 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -912,15 +908,15 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -938,13 +934,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
@@ -954,76 +950,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/factories/DRI_factory.xlsx
+++ b/data/steel/factories/DRI_factory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="600" windowWidth="20355" windowHeight="17535"/>
+    <workbookView xWindow="5895" yWindow="600" windowWidth="20355" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Inflow</t>
   </si>
@@ -167,15 +167,28 @@
   </si>
   <si>
     <t>reduced iron</t>
+  </si>
+  <si>
+    <t>steel scrap (mill)</t>
+  </si>
+  <si>
+    <t>steel scrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,6 +229,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,17 +266,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -672,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,41 +728,41 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -736,26 +770,29 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -769,102 +806,102 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -890,7 +927,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -914,9 +951,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -940,9 +977,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,7 +1017,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
